--- a/Documentation/Requirement document/Group-6-ProductBacklog.xlsx
+++ b/Documentation/Requirement document/Group-6-ProductBacklog.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Year3\Semester3\SWR302\ASSIGNMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cac_Mon_Da_Hoc\Sem5\PRN211\Project_DuoLegend\Documentation\Requirement document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1768CEB-F975-41B2-89AB-FB796CB60874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA9445C-9212-4BE5-9839-0D8E0686EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39F88D98-1E34-48F2-BB91-BC7B1009E6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -184,6 +175,21 @@
   </si>
   <si>
     <t>Not started</t>
+  </si>
+  <si>
+    <t>Đăng kí F+B</t>
+  </si>
+  <si>
+    <t>Session login</t>
+  </si>
+  <si>
+    <t>Profile F</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Started</t>
   </si>
 </sst>
 </file>
@@ -194,7 +200,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -202,7 +208,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,13 +336,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,20 +668,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DC3E7-535B-4A14-B87B-5ADF76B0FCB5}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="28.8984375" customWidth="1"/>
+    <col min="4" max="4" width="35.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" customWidth="1"/>
+    <col min="10" max="10" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.6" customHeight="1"/>
@@ -700,11 +716,11 @@
     </row>
     <row r="3" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="7">
         <v>1</v>
       </c>
@@ -738,7 +754,7 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4" s="12">
         <v>8</v>
@@ -765,12 +781,15 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H5" s="12">
         <v>1</v>
       </c>
       <c r="I5" s="17"/>
+      <c r="J5" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="20.399999999999999" customHeight="1">
@@ -791,14 +810,16 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H6" s="12">
         <v>16</v>
       </c>
       <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="21"/>
+      <c r="J6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A7" s="10">
@@ -824,15 +845,17 @@
         <v>8</v>
       </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="7">
         <v>1</v>
       </c>
@@ -952,11 +975,11 @@
     </row>
     <row r="13" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="7">
         <v>2</v>
       </c>
@@ -1051,11 +1074,11 @@
     </row>
     <row r="17" spans="1:10" ht="20.399999999999999" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="9">
         <v>3</v>
       </c>
